--- a/biology/Zoologie/Bisetocreagris_ussuriensis/Bisetocreagris_ussuriensis.xlsx
+++ b/biology/Zoologie/Bisetocreagris_ussuriensis/Bisetocreagris_ussuriensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bisetocreagris ussuriensis est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Russie dans les kraïs de Khabarovsk et du Primorié et en Chine au Jilin et au Hebei[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Russie dans les kraïs de Khabarovsk et du Primorié et en Chine au Jilin et au Hebei.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,46 à 2,75 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,46 à 2,75 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Microcreagris ussuriensis par Redikorzev en 1934. Elle est placée dans le genre Bisetocreagris par Ćurčić en 1985[2]. Bisetocreagris maritima, Bisetocreagris erytheia, Bisetocreagris merope et Bisetocreagris gorgo sont placées en synonymie par Schawaller en 1989[3] et Pedalocreagris tethys par Judson en 1993[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Microcreagris ussuriensis par Redikorzev en 1934. Elle est placée dans le genre Bisetocreagris par Ćurčić en 1985. Bisetocreagris maritima, Bisetocreagris erytheia, Bisetocreagris merope et Bisetocreagris gorgo sont placées en synonymie par Schawaller en 1989 et Pedalocreagris tethys par Judson en 1993
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de ussur et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Oussouriisk.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Redikorzev, 1934 : Neue paläarktische Pseudoscorpione. Zoologische Jahrbücher, Abteilung für Systematik, Ökologie und Geographie der Tiere, vol. 65, p. 423-440.</t>
         </is>
